--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AR2_50_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AR2_50_9_winter.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,299 +417,276 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39400</v>
+        <v>39765</v>
       </c>
       <c r="B2">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D2">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>39765</v>
+        <v>40130</v>
       </c>
       <c r="B3">
-        <v>2008</v>
+        <v>2009</v>
+      </c>
+      <c r="C3">
+        <v>1.218009596270675</v>
       </c>
       <c r="D3">
-        <v>2009</v>
-      </c>
-      <c r="E3">
-        <v>1.141887928483976</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>40130</v>
+        <v>40494</v>
       </c>
       <c r="B4">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C4">
-        <v>1.218009596270675</v>
+        <v>0.5544720893820188</v>
       </c>
       <c r="D4">
-        <v>2010</v>
-      </c>
-      <c r="E4">
-        <v>0.4727443609437554</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>40494</v>
+        <v>40862</v>
       </c>
       <c r="B5">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C5">
-        <v>0.5544720893820188</v>
+        <v>1.173294700162053</v>
       </c>
       <c r="D5">
-        <v>2011</v>
-      </c>
-      <c r="E5">
-        <v>1.249231320663591</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>40862</v>
+        <v>41228</v>
       </c>
       <c r="B6">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C6">
-        <v>1.173294700162031</v>
+        <v>1.180518841971723</v>
       </c>
       <c r="D6">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E6">
-        <v>1.1299540917866</v>
+        <v>1.1370912555561</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>41228</v>
+        <v>41592</v>
       </c>
       <c r="B7">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C7">
-        <v>1.180518841971723</v>
+        <v>0.9276272455014611</v>
       </c>
       <c r="D7">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E7">
-        <v>0.9276272455014611</v>
+        <v>0.9849212343369107</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>41592</v>
+        <v>41957</v>
       </c>
       <c r="B8">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C8">
-        <v>0.9276272455014611</v>
+        <v>1.265990289415564</v>
       </c>
       <c r="D8">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E8">
-        <v>1.30704451907393</v>
+        <v>1.242282657891813</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>41957</v>
+        <v>42321</v>
       </c>
       <c r="B9">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C9">
-        <v>1.265990289415564</v>
+        <v>1.642047742738506</v>
       </c>
       <c r="D9">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E9">
-        <v>1.578526694644333</v>
+        <v>1.358051868183585</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>42321</v>
+        <v>42689</v>
       </c>
       <c r="B10">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C10">
-        <v>1.642047742738506</v>
+        <v>1.66194179127146</v>
       </c>
       <c r="D10">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E10">
-        <v>1.725489977756145</v>
+        <v>1.377345568933785</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>42689</v>
+        <v>43053</v>
       </c>
       <c r="B11">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C11">
-        <v>1.66194179127146</v>
+        <v>1.609733807897773</v>
       </c>
       <c r="D11">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E11">
-        <v>1.501780248496876</v>
+        <v>1.476362359157601</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>43053</v>
+        <v>43418</v>
       </c>
       <c r="B12">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C12">
-        <v>1.609733807897773</v>
+        <v>1.641178243814534</v>
       </c>
       <c r="D12">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E12">
-        <v>1.755561861459198</v>
+        <v>1.451677407676555</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>43418</v>
+        <v>43783</v>
       </c>
       <c r="B13">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C13">
-        <v>1.641178243814534</v>
+        <v>1.183163144818633</v>
       </c>
       <c r="D13">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E13">
-        <v>1.584399974297779</v>
+        <v>0.6182077276742692</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>43783</v>
+        <v>44159</v>
       </c>
       <c r="B14">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C14">
-        <v>1.183163144818633</v>
+        <v>-3.662861831460751</v>
       </c>
       <c r="D14">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E14">
-        <v>0.6125740497801901</v>
+        <v>-1.655311137157178</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>44159</v>
+        <v>44525</v>
       </c>
       <c r="B15">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C15">
-        <v>-3.662861831460751</v>
+        <v>0.1010915562932313</v>
       </c>
       <c r="D15">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E15">
-        <v>0.3647198962692944</v>
+        <v>4.631210905746741</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>44525</v>
+        <v>44890</v>
       </c>
       <c r="B16">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C16">
-        <v>0.1010915562932313</v>
+        <v>5.793673192389748</v>
       </c>
       <c r="D16">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E16">
-        <v>6.577442533483757</v>
+        <v>1.066562775371072</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>44890</v>
+        <v>45254</v>
       </c>
       <c r="B17">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C17">
-        <v>5.793673192389748</v>
+        <v>-0.3788601787194756</v>
       </c>
       <c r="D17">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E17">
-        <v>-0.4918103610675129</v>
+        <v>0.4316736535407095</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45254</v>
+        <v>45618</v>
       </c>
       <c r="B18">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C18">
-        <v>-0.3788601787194756</v>
+        <v>0.05771202657300911</v>
       </c>
       <c r="D18">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E18">
-        <v>0.5341373531255966</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="2">
-        <v>45618</v>
-      </c>
-      <c r="B19">
-        <v>2024</v>
-      </c>
-      <c r="C19">
-        <v>0.05771202657300911</v>
-      </c>
-      <c r="D19">
-        <v>2025</v>
-      </c>
-      <c r="E19">
-        <v>0.8226227460387703</v>
+        <v>0.8173856700710358</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AR2_50_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AR2_50_9_winter.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,276 +417,299 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39765</v>
+        <v>39400</v>
       </c>
       <c r="B2">
+        <v>2007</v>
+      </c>
+      <c r="C2">
+        <v>0.4235526809466261</v>
+      </c>
+      <c r="D2">
         <v>2008</v>
-      </c>
-      <c r="D2">
-        <v>2009</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>40130</v>
+        <v>39765</v>
       </c>
       <c r="B3">
+        <v>2008</v>
+      </c>
+      <c r="C3">
+        <v>-0.571807692896309</v>
+      </c>
+      <c r="D3">
         <v>2009</v>
-      </c>
-      <c r="C3">
-        <v>1.218009596270675</v>
-      </c>
-      <c r="D3">
-        <v>2010</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>40494</v>
+        <v>40130</v>
       </c>
       <c r="B4">
+        <v>2009</v>
+      </c>
+      <c r="C4">
+        <v>0.3486139762224783</v>
+      </c>
+      <c r="D4">
         <v>2010</v>
-      </c>
-      <c r="C4">
-        <v>0.5544720893820188</v>
-      </c>
-      <c r="D4">
-        <v>2011</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>40862</v>
+        <v>40494</v>
       </c>
       <c r="B5">
+        <v>2010</v>
+      </c>
+      <c r="C5">
+        <v>-0.1384957661262898</v>
+      </c>
+      <c r="D5">
         <v>2011</v>
       </c>
-      <c r="C5">
-        <v>1.173294700162053</v>
-      </c>
-      <c r="D5">
-        <v>2012</v>
+      <c r="E5">
+        <v>0.592211799485276</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>41228</v>
+        <v>40862</v>
       </c>
       <c r="B6">
+        <v>2011</v>
+      </c>
+      <c r="C6">
+        <v>1.566479473280147</v>
+      </c>
+      <c r="D6">
         <v>2012</v>
       </c>
-      <c r="C6">
-        <v>1.180518841971723</v>
-      </c>
-      <c r="D6">
-        <v>2013</v>
-      </c>
       <c r="E6">
-        <v>1.1370912555561</v>
+        <v>0.5295895589954247</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>41592</v>
+        <v>41228</v>
       </c>
       <c r="B7">
+        <v>2012</v>
+      </c>
+      <c r="C7">
+        <v>0.7307568962936939</v>
+      </c>
+      <c r="D7">
         <v>2013</v>
       </c>
-      <c r="C7">
-        <v>0.9276272455014611</v>
-      </c>
-      <c r="D7">
-        <v>2014</v>
-      </c>
       <c r="E7">
-        <v>0.9849212343369107</v>
+        <v>0.5955791956549161</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>41957</v>
+        <v>41592</v>
       </c>
       <c r="B8">
+        <v>2013</v>
+      </c>
+      <c r="C8">
+        <v>0.818818812164257</v>
+      </c>
+      <c r="D8">
         <v>2014</v>
       </c>
-      <c r="C8">
-        <v>1.265990289415564</v>
-      </c>
-      <c r="D8">
-        <v>2015</v>
-      </c>
       <c r="E8">
-        <v>1.242282657891813</v>
+        <v>0.9193568360546411</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>42321</v>
+        <v>41957</v>
       </c>
       <c r="B9">
+        <v>2014</v>
+      </c>
+      <c r="C9">
+        <v>0.9180054319587239</v>
+      </c>
+      <c r="D9">
         <v>2015</v>
       </c>
-      <c r="C9">
-        <v>1.642047742738506</v>
-      </c>
-      <c r="D9">
-        <v>2016</v>
-      </c>
       <c r="E9">
-        <v>1.358051868183585</v>
+        <v>0.9697679806505821</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>42689</v>
+        <v>42321</v>
       </c>
       <c r="B10">
+        <v>2015</v>
+      </c>
+      <c r="C10">
+        <v>1.984684278296656</v>
+      </c>
+      <c r="D10">
         <v>2016</v>
       </c>
-      <c r="C10">
-        <v>1.66194179127146</v>
-      </c>
-      <c r="D10">
-        <v>2017</v>
-      </c>
       <c r="E10">
-        <v>1.377345568933785</v>
+        <v>0.970573649360662</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>43053</v>
+        <v>42689</v>
       </c>
       <c r="B11">
+        <v>2016</v>
+      </c>
+      <c r="C11">
+        <v>1.755995812646982</v>
+      </c>
+      <c r="D11">
         <v>2017</v>
       </c>
-      <c r="C11">
-        <v>1.609733807897773</v>
-      </c>
-      <c r="D11">
-        <v>2018</v>
-      </c>
       <c r="E11">
-        <v>1.476362359157601</v>
+        <v>1.083941060573212</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>43418</v>
+        <v>43053</v>
       </c>
       <c r="B12">
+        <v>2017</v>
+      </c>
+      <c r="C12">
+        <v>1.946965557828384</v>
+      </c>
+      <c r="D12">
         <v>2018</v>
       </c>
-      <c r="C12">
-        <v>1.641178243814534</v>
-      </c>
-      <c r="D12">
-        <v>2019</v>
-      </c>
       <c r="E12">
-        <v>1.451677407676555</v>
+        <v>1.343559319682996</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>43783</v>
+        <v>43418</v>
       </c>
       <c r="B13">
+        <v>2018</v>
+      </c>
+      <c r="C13">
+        <v>1.06432145354225</v>
+      </c>
+      <c r="D13">
         <v>2019</v>
       </c>
-      <c r="C13">
-        <v>1.183163144818633</v>
-      </c>
-      <c r="D13">
-        <v>2020</v>
-      </c>
       <c r="E13">
-        <v>0.6182077276742692</v>
+        <v>0.8791375467670726</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>44159</v>
+        <v>43783</v>
       </c>
       <c r="B14">
+        <v>2019</v>
+      </c>
+      <c r="C14">
+        <v>1.361817904277696</v>
+      </c>
+      <c r="D14">
         <v>2020</v>
       </c>
-      <c r="C14">
-        <v>-3.662861831460751</v>
-      </c>
-      <c r="D14">
-        <v>2021</v>
-      </c>
       <c r="E14">
-        <v>-1.655311137157178</v>
+        <v>1.226035857429442</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>44525</v>
+        <v>44159</v>
       </c>
       <c r="B15">
+        <v>2020</v>
+      </c>
+      <c r="C15">
+        <v>-4.352425014431304</v>
+      </c>
+      <c r="D15">
         <v>2021</v>
       </c>
-      <c r="C15">
-        <v>0.1010915562932313</v>
-      </c>
-      <c r="D15">
-        <v>2022</v>
-      </c>
       <c r="E15">
-        <v>4.631210905746741</v>
+        <v>-1.242805832929039</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>44890</v>
+        <v>44525</v>
       </c>
       <c r="B16">
+        <v>2021</v>
+      </c>
+      <c r="C16">
+        <v>-1.761645650979182</v>
+      </c>
+      <c r="D16">
         <v>2022</v>
       </c>
-      <c r="C16">
-        <v>5.793673192389748</v>
-      </c>
-      <c r="D16">
-        <v>2023</v>
-      </c>
       <c r="E16">
-        <v>1.066562775371072</v>
+        <v>3.46909983288044</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45254</v>
+        <v>44890</v>
       </c>
       <c r="B17">
+        <v>2022</v>
+      </c>
+      <c r="C17">
+        <v>5.20787683103745</v>
+      </c>
+      <c r="D17">
         <v>2023</v>
       </c>
-      <c r="C17">
-        <v>-0.3788601787194756</v>
-      </c>
-      <c r="D17">
-        <v>2024</v>
-      </c>
       <c r="E17">
-        <v>0.4316736535407095</v>
+        <v>1.517423464826884</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
+        <v>45254</v>
+      </c>
+      <c r="B18">
+        <v>2023</v>
+      </c>
+      <c r="C18">
+        <v>-0.9008525709169546</v>
+      </c>
+      <c r="D18">
+        <v>2024</v>
+      </c>
+      <c r="E18">
+        <v>0.2090788898015949</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
         <v>45618</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>2024</v>
       </c>
-      <c r="C18">
-        <v>0.05771202657300911</v>
-      </c>
-      <c r="D18">
+      <c r="C19">
+        <v>0.2738544794132824</v>
+      </c>
+      <c r="D19">
         <v>2025</v>
       </c>
-      <c r="E18">
-        <v>0.8173856700710358</v>
+      <c r="E19">
+        <v>0.5362040463673612</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AR2_50_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AR2_50_9_winter.xlsx
@@ -641,7 +641,7 @@
         <v>2021</v>
       </c>
       <c r="E15">
-        <v>-1.242805832929039</v>
+        <v>-1.222056059052401</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -658,7 +658,7 @@
         <v>2022</v>
       </c>
       <c r="E16">
-        <v>3.46909983288044</v>
+        <v>0.6980411378030738</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -675,7 +675,7 @@
         <v>2023</v>
       </c>
       <c r="E17">
-        <v>1.517423464826884</v>
+        <v>1.605691900741069</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -692,7 +692,7 @@
         <v>2024</v>
       </c>
       <c r="E18">
-        <v>0.2090788898015949</v>
+        <v>0.4115388134666942</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -709,7 +709,7 @@
         <v>2025</v>
       </c>
       <c r="E19">
-        <v>0.5362040463673612</v>
+        <v>0.6247505135484666</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AR2_50_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AR2_50_9_winter.xlsx
@@ -422,9 +422,6 @@
       <c r="B2">
         <v>2007</v>
       </c>
-      <c r="C2">
-        <v>0.4235526809466261</v>
-      </c>
       <c r="D2">
         <v>2008</v>
       </c>
@@ -436,9 +433,6 @@
       <c r="B3">
         <v>2008</v>
       </c>
-      <c r="C3">
-        <v>-0.571807692896309</v>
-      </c>
       <c r="D3">
         <v>2009</v>
       </c>
@@ -451,7 +445,7 @@
         <v>2009</v>
       </c>
       <c r="C4">
-        <v>0.3486139762224783</v>
+        <v>0.348613976222456</v>
       </c>
       <c r="D4">
         <v>2010</v>
@@ -465,13 +459,13 @@
         <v>2010</v>
       </c>
       <c r="C5">
-        <v>-0.1384957661262898</v>
+        <v>-0.1384957661262676</v>
       </c>
       <c r="D5">
         <v>2011</v>
       </c>
       <c r="E5">
-        <v>0.592211799485276</v>
+        <v>0.5922117994852982</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -482,13 +476,13 @@
         <v>2011</v>
       </c>
       <c r="C6">
-        <v>1.566479473280147</v>
+        <v>1.566479473280191</v>
       </c>
       <c r="D6">
         <v>2012</v>
       </c>
       <c r="E6">
-        <v>0.5295895589954247</v>
+        <v>0.5295895589954469</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -499,7 +493,7 @@
         <v>2012</v>
       </c>
       <c r="C7">
-        <v>0.7307568962936939</v>
+        <v>0.7307568962937161</v>
       </c>
       <c r="D7">
         <v>2013</v>
@@ -516,7 +510,7 @@
         <v>2013</v>
       </c>
       <c r="C8">
-        <v>0.818818812164257</v>
+        <v>0.8188188121642126</v>
       </c>
       <c r="D8">
         <v>2014</v>
@@ -539,7 +533,7 @@
         <v>2015</v>
       </c>
       <c r="E9">
-        <v>0.9697679806505821</v>
+        <v>0.9697679806506043</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -550,7 +544,7 @@
         <v>2015</v>
       </c>
       <c r="C10">
-        <v>1.984684278296656</v>
+        <v>1.9846842782967</v>
       </c>
       <c r="D10">
         <v>2016</v>
@@ -573,7 +567,7 @@
         <v>2017</v>
       </c>
       <c r="E11">
-        <v>1.083941060573212</v>
+        <v>1.083941060573257</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -601,13 +595,13 @@
         <v>2018</v>
       </c>
       <c r="C13">
-        <v>1.06432145354225</v>
+        <v>1.064321453542272</v>
       </c>
       <c r="D13">
         <v>2019</v>
       </c>
       <c r="E13">
-        <v>0.8791375467670726</v>
+        <v>0.8791375467670504</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -618,13 +612,13 @@
         <v>2019</v>
       </c>
       <c r="C14">
-        <v>1.361817904277696</v>
+        <v>1.361817904277718</v>
       </c>
       <c r="D14">
         <v>2020</v>
       </c>
       <c r="E14">
-        <v>1.226035857429442</v>
+        <v>1.226035857429419</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -635,13 +629,13 @@
         <v>2020</v>
       </c>
       <c r="C15">
-        <v>-4.352425014431304</v>
+        <v>-4.352425014431327</v>
       </c>
       <c r="D15">
         <v>2021</v>
       </c>
       <c r="E15">
-        <v>-1.222056059052401</v>
+        <v>-1.222056059052357</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -658,7 +652,7 @@
         <v>2022</v>
       </c>
       <c r="E16">
-        <v>0.6980411378030738</v>
+        <v>0.6980411378030515</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -675,7 +669,7 @@
         <v>2023</v>
       </c>
       <c r="E17">
-        <v>1.605691900741069</v>
+        <v>1.605691900741091</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -686,7 +680,7 @@
         <v>2023</v>
       </c>
       <c r="C18">
-        <v>-0.9008525709169546</v>
+        <v>-0.9008525709169657</v>
       </c>
       <c r="D18">
         <v>2024</v>
@@ -703,13 +697,13 @@
         <v>2024</v>
       </c>
       <c r="C19">
-        <v>0.2738544794132824</v>
+        <v>0.2738544794132602</v>
       </c>
       <c r="D19">
         <v>2025</v>
       </c>
       <c r="E19">
-        <v>0.6247505135484666</v>
+        <v>0.6247505135484221</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AR2_50_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AR2_50_9_winter.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -706,6 +706,23 @@
         <v>0.6247505135484221</v>
       </c>
     </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
+        <v>45986</v>
+      </c>
+      <c r="B20">
+        <v>2025</v>
+      </c>
+      <c r="C20">
+        <v>0.8976398032236155</v>
+      </c>
+      <c r="D20">
+        <v>2026</v>
+      </c>
+      <c r="E20">
+        <v>0.7456737245741252</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
